--- a/Capas_SIG.xlsx
+++ b/Capas_SIG.xlsx
@@ -2,41 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA370E60-8FB2-4EE3-8B28-56D0AAE36083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769FEEC-C6A1-44A9-A311-940506A5E244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF6D31D9-1269-4A27-A9FF-1AFC2ABC9B50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="603">
   <si>
     <t>orden original</t>
   </si>
@@ -1839,6 +1828,12 @@
   </si>
   <si>
     <t>https://wms.ign.gob.ar/geoserver/ign/ows?service=WFS&amp;version=1.0.0&amp;request=GetFeature&amp;typeName=ign%3Aareas_de_zona_costera_playa_restinga&amp;outputFormat=csv</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1903,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1926,24 +1971,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBF3A620-278E-47B1-AB93-2AF4837C7105}" name="Tabla1" displayName="Tabla1" ref="A1:O191" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:O191" xr:uid="{EBF3A620-278E-47B1-AB93-2AF4837C7105}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:O191" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:O191" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{D7517EF4-EDD6-47FA-A77C-80300D25EC3E}" name="orden original"/>
-    <tableColumn id="2" xr3:uid="{DA5E6D57-29D3-48B5-918A-77765A4AD74A}" name="Clase"/>
-    <tableColumn id="3" xr3:uid="{CCCD18EB-E2C1-43BD-87F2-22FC707E6E8A}" name="Subclase"/>
-    <tableColumn id="4" xr3:uid="{3F127D84-2D05-4EBD-BD98-FA613B7D81F0}" name="Geometría"/>
-    <tableColumn id="5" xr3:uid="{AC52364A-88EE-41B8-AAA1-57B146841EC3}" name="Nombre de la capa base"/>
-    <tableColumn id="6" xr3:uid="{7E68CEF9-A9EB-454F-A771-877A2BB425F0}" name="Acronimo"/>
-    <tableColumn id="7" xr3:uid="{F86CC690-629F-4824-81A5-B063EA31D72E}" name="Config Manual"/>
-    <tableColumn id="8" xr3:uid="{EB77C1D4-3F3A-40A7-BD3B-80AE84544CA8}" name="Config Minima"/>
-    <tableColumn id="9" xr3:uid="{885F5879-315B-4CE5-BABE-EE15EDE5DD4D}" name="Config Estandar"/>
-    <tableColumn id="10" xr3:uid="{AADDA5B5-2EE1-42E1-89C1-9CCC57011D37}" name="50k"/>
-    <tableColumn id="11" xr3:uid="{A2BF05B3-693F-49FF-9847-AFB4B25FEE7C}" name="100k"/>
-    <tableColumn id="12" xr3:uid="{C4FB7632-1648-4DA4-958F-2E3636A5B849}" name="250k"/>
-    <tableColumn id="13" xr3:uid="{F3C613A3-7293-4655-8D1D-B9758D657992}" name="500k"/>
-    <tableColumn id="14" xr3:uid="{A0341D59-1F4B-4A69-8C34-64D2CEFCEC11}" name="Button CSV completo"/>
-    <tableColumn id="15" xr3:uid="{DA279660-EB44-4961-B72A-569C54BD170A}" name="Link CSV"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="orden original"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Clase"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Subclase"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Geometría"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nombre de la capa base"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Acronimo"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Config Manual"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Config Minima"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Config Estandar"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="50k"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="100k"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="250k"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="500k"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Button CSV completo"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Link CSV"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2265,17 +2310,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FBBB08-8B8D-495A-A5B9-E85033F31CB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.21875" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" customWidth="1"/>
@@ -2348,6 +2397,18 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
+      <c r="J2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K2" t="s">
+        <v>602</v>
+      </c>
+      <c r="L2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M2" t="s">
+        <v>602</v>
+      </c>
       <c r="N2" t="s">
         <v>20</v>
       </c>
@@ -2374,6 +2435,18 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
+      <c r="J3" t="s">
+        <v>601</v>
+      </c>
+      <c r="K3" t="s">
+        <v>601</v>
+      </c>
+      <c r="L3" t="s">
+        <v>602</v>
+      </c>
+      <c r="M3" t="s">
+        <v>602</v>
+      </c>
       <c r="N3" t="s">
         <v>25</v>
       </c>
@@ -2400,6 +2473,18 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
+      <c r="J4" t="s">
+        <v>602</v>
+      </c>
+      <c r="K4" t="s">
+        <v>602</v>
+      </c>
+      <c r="L4" t="s">
+        <v>602</v>
+      </c>
+      <c r="M4" t="s">
+        <v>602</v>
+      </c>
       <c r="N4" t="s">
         <v>28</v>
       </c>
@@ -2426,6 +2511,18 @@
       <c r="F5" t="s">
         <v>31</v>
       </c>
+      <c r="J5" t="s">
+        <v>601</v>
+      </c>
+      <c r="K5" t="s">
+        <v>601</v>
+      </c>
+      <c r="L5" t="s">
+        <v>601</v>
+      </c>
+      <c r="M5" t="s">
+        <v>601</v>
+      </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
@@ -2452,6 +2549,18 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
+      <c r="J6" t="s">
+        <v>601</v>
+      </c>
+      <c r="K6" t="s">
+        <v>601</v>
+      </c>
+      <c r="L6" t="s">
+        <v>601</v>
+      </c>
+      <c r="M6" t="s">
+        <v>601</v>
+      </c>
       <c r="N6" t="s">
         <v>38</v>
       </c>
@@ -2478,6 +2587,18 @@
       <c r="F7" t="s">
         <v>41</v>
       </c>
+      <c r="J7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K7" t="s">
+        <v>601</v>
+      </c>
+      <c r="L7" t="s">
+        <v>601</v>
+      </c>
+      <c r="M7" t="s">
+        <v>601</v>
+      </c>
       <c r="N7" t="s">
         <v>42</v>
       </c>
@@ -2504,6 +2625,18 @@
       <c r="F8" t="s">
         <v>45</v>
       </c>
+      <c r="J8" t="s">
+        <v>601</v>
+      </c>
+      <c r="K8" t="s">
+        <v>601</v>
+      </c>
+      <c r="L8" t="s">
+        <v>602</v>
+      </c>
+      <c r="M8" t="s">
+        <v>602</v>
+      </c>
       <c r="N8" t="s">
         <v>46</v>
       </c>
@@ -2530,6 +2663,18 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
+      <c r="J9" t="s">
+        <v>601</v>
+      </c>
+      <c r="K9" t="s">
+        <v>601</v>
+      </c>
+      <c r="L9" t="s">
+        <v>601</v>
+      </c>
+      <c r="M9" t="s">
+        <v>601</v>
+      </c>
       <c r="N9" t="s">
         <v>51</v>
       </c>
@@ -2556,6 +2701,18 @@
       <c r="F10" t="s">
         <v>56</v>
       </c>
+      <c r="J10" t="s">
+        <v>601</v>
+      </c>
+      <c r="K10" t="s">
+        <v>601</v>
+      </c>
+      <c r="L10" t="s">
+        <v>601</v>
+      </c>
+      <c r="M10" t="s">
+        <v>601</v>
+      </c>
       <c r="N10" t="s">
         <v>57</v>
       </c>
@@ -2582,6 +2739,18 @@
       <c r="F11" t="s">
         <v>60</v>
       </c>
+      <c r="J11" t="s">
+        <v>601</v>
+      </c>
+      <c r="K11" t="s">
+        <v>601</v>
+      </c>
+      <c r="L11" t="s">
+        <v>601</v>
+      </c>
+      <c r="M11" t="s">
+        <v>601</v>
+      </c>
       <c r="N11" t="s">
         <v>61</v>
       </c>
@@ -2605,6 +2774,18 @@
       <c r="E12" t="s">
         <v>63</v>
       </c>
+      <c r="J12" t="s">
+        <v>601</v>
+      </c>
+      <c r="K12" t="s">
+        <v>601</v>
+      </c>
+      <c r="L12" t="s">
+        <v>601</v>
+      </c>
+      <c r="M12" t="s">
+        <v>601</v>
+      </c>
       <c r="N12" t="s">
         <v>64</v>
       </c>
@@ -2628,6 +2809,18 @@
       <c r="E13" t="s">
         <v>63</v>
       </c>
+      <c r="J13" t="s">
+        <v>601</v>
+      </c>
+      <c r="K13" t="s">
+        <v>601</v>
+      </c>
+      <c r="L13" t="s">
+        <v>602</v>
+      </c>
+      <c r="M13" t="s">
+        <v>602</v>
+      </c>
       <c r="N13" t="s">
         <v>66</v>
       </c>
@@ -2651,6 +2844,18 @@
       <c r="E14" t="s">
         <v>68</v>
       </c>
+      <c r="J14" t="s">
+        <v>601</v>
+      </c>
+      <c r="K14" t="s">
+        <v>601</v>
+      </c>
+      <c r="L14" t="s">
+        <v>601</v>
+      </c>
+      <c r="M14" t="s">
+        <v>601</v>
+      </c>
       <c r="N14" t="s">
         <v>69</v>
       </c>
@@ -2674,6 +2879,18 @@
       <c r="E15" t="s">
         <v>71</v>
       </c>
+      <c r="J15" t="s">
+        <v>601</v>
+      </c>
+      <c r="K15" t="s">
+        <v>601</v>
+      </c>
+      <c r="L15" t="s">
+        <v>601</v>
+      </c>
+      <c r="M15" t="s">
+        <v>601</v>
+      </c>
       <c r="N15" t="s">
         <v>72</v>
       </c>
@@ -2697,6 +2914,18 @@
       <c r="E16" t="s">
         <v>74</v>
       </c>
+      <c r="J16" t="s">
+        <v>601</v>
+      </c>
+      <c r="K16" t="s">
+        <v>601</v>
+      </c>
+      <c r="L16" t="s">
+        <v>601</v>
+      </c>
+      <c r="M16" t="s">
+        <v>601</v>
+      </c>
       <c r="N16" t="s">
         <v>72</v>
       </c>
@@ -2720,6 +2949,18 @@
       <c r="E17" t="s">
         <v>75</v>
       </c>
+      <c r="J17" t="s">
+        <v>601</v>
+      </c>
+      <c r="K17" t="s">
+        <v>601</v>
+      </c>
+      <c r="L17" t="s">
+        <v>601</v>
+      </c>
+      <c r="M17" t="s">
+        <v>601</v>
+      </c>
       <c r="N17" t="s">
         <v>76</v>
       </c>
@@ -2743,6 +2984,18 @@
       <c r="E18" t="s">
         <v>78</v>
       </c>
+      <c r="J18" t="s">
+        <v>601</v>
+      </c>
+      <c r="K18" t="s">
+        <v>601</v>
+      </c>
+      <c r="L18" t="s">
+        <v>601</v>
+      </c>
+      <c r="M18" t="s">
+        <v>601</v>
+      </c>
       <c r="N18" t="s">
         <v>79</v>
       </c>
@@ -2766,6 +3019,18 @@
       <c r="E19" t="s">
         <v>81</v>
       </c>
+      <c r="J19" t="s">
+        <v>601</v>
+      </c>
+      <c r="K19" t="s">
+        <v>601</v>
+      </c>
+      <c r="L19" t="s">
+        <v>601</v>
+      </c>
+      <c r="M19" t="s">
+        <v>601</v>
+      </c>
       <c r="N19" t="s">
         <v>82</v>
       </c>
@@ -2789,6 +3054,18 @@
       <c r="E20" t="s">
         <v>84</v>
       </c>
+      <c r="J20" t="s">
+        <v>601</v>
+      </c>
+      <c r="K20" t="s">
+        <v>601</v>
+      </c>
+      <c r="L20" t="s">
+        <v>601</v>
+      </c>
+      <c r="M20" t="s">
+        <v>601</v>
+      </c>
       <c r="N20" t="s">
         <v>82</v>
       </c>
@@ -2812,6 +3089,18 @@
       <c r="E21" t="s">
         <v>84</v>
       </c>
+      <c r="J21" t="s">
+        <v>601</v>
+      </c>
+      <c r="K21" t="s">
+        <v>601</v>
+      </c>
+      <c r="L21" t="s">
+        <v>601</v>
+      </c>
+      <c r="M21" t="s">
+        <v>601</v>
+      </c>
       <c r="N21" t="s">
         <v>85</v>
       </c>
@@ -2835,6 +3124,18 @@
       <c r="E22" t="s">
         <v>87</v>
       </c>
+      <c r="J22" t="s">
+        <v>601</v>
+      </c>
+      <c r="K22" t="s">
+        <v>601</v>
+      </c>
+      <c r="L22" t="s">
+        <v>601</v>
+      </c>
+      <c r="M22" t="s">
+        <v>601</v>
+      </c>
       <c r="N22" t="s">
         <v>85</v>
       </c>
@@ -2858,6 +3159,18 @@
       <c r="E23" t="s">
         <v>88</v>
       </c>
+      <c r="J23" t="s">
+        <v>601</v>
+      </c>
+      <c r="K23" t="s">
+        <v>601</v>
+      </c>
+      <c r="L23" t="s">
+        <v>601</v>
+      </c>
+      <c r="M23" t="s">
+        <v>601</v>
+      </c>
       <c r="N23" t="s">
         <v>89</v>
       </c>
@@ -2881,6 +3194,18 @@
       <c r="E24" t="s">
         <v>91</v>
       </c>
+      <c r="J24" t="s">
+        <v>601</v>
+      </c>
+      <c r="K24" t="s">
+        <v>601</v>
+      </c>
+      <c r="L24" t="s">
+        <v>601</v>
+      </c>
+      <c r="M24" t="s">
+        <v>601</v>
+      </c>
       <c r="N24" t="s">
         <v>92</v>
       </c>
@@ -2904,6 +3229,18 @@
       <c r="E25" t="s">
         <v>94</v>
       </c>
+      <c r="J25" t="s">
+        <v>601</v>
+      </c>
+      <c r="K25" t="s">
+        <v>601</v>
+      </c>
+      <c r="L25" t="s">
+        <v>602</v>
+      </c>
+      <c r="M25" t="s">
+        <v>602</v>
+      </c>
       <c r="N25" t="s">
         <v>92</v>
       </c>
@@ -2927,6 +3264,18 @@
       <c r="E26" t="s">
         <v>96</v>
       </c>
+      <c r="J26" t="s">
+        <v>601</v>
+      </c>
+      <c r="K26" t="s">
+        <v>601</v>
+      </c>
+      <c r="L26" t="s">
+        <v>602</v>
+      </c>
+      <c r="M26" t="s">
+        <v>602</v>
+      </c>
       <c r="N26" t="s">
         <v>97</v>
       </c>
@@ -2950,6 +3299,18 @@
       <c r="E27" t="s">
         <v>99</v>
       </c>
+      <c r="J27" t="s">
+        <v>601</v>
+      </c>
+      <c r="K27" t="s">
+        <v>601</v>
+      </c>
+      <c r="L27" t="s">
+        <v>601</v>
+      </c>
+      <c r="M27" t="s">
+        <v>601</v>
+      </c>
       <c r="N27" t="s">
         <v>100</v>
       </c>
@@ -2973,6 +3334,18 @@
       <c r="E28" t="s">
         <v>104</v>
       </c>
+      <c r="J28" t="s">
+        <v>601</v>
+      </c>
+      <c r="K28" t="s">
+        <v>601</v>
+      </c>
+      <c r="L28" t="s">
+        <v>601</v>
+      </c>
+      <c r="M28" t="s">
+        <v>601</v>
+      </c>
       <c r="N28" t="s">
         <v>105</v>
       </c>
@@ -2996,6 +3369,18 @@
       <c r="E29" t="s">
         <v>109</v>
       </c>
+      <c r="J29" t="s">
+        <v>601</v>
+      </c>
+      <c r="K29" t="s">
+        <v>601</v>
+      </c>
+      <c r="L29" t="s">
+        <v>601</v>
+      </c>
+      <c r="M29" t="s">
+        <v>601</v>
+      </c>
       <c r="N29" t="s">
         <v>110</v>
       </c>
@@ -3019,6 +3404,18 @@
       <c r="E30" t="s">
         <v>112</v>
       </c>
+      <c r="J30" t="s">
+        <v>601</v>
+      </c>
+      <c r="K30" t="s">
+        <v>601</v>
+      </c>
+      <c r="L30" t="s">
+        <v>601</v>
+      </c>
+      <c r="M30" t="s">
+        <v>601</v>
+      </c>
       <c r="N30" t="s">
         <v>113</v>
       </c>
@@ -3042,6 +3439,18 @@
       <c r="E31" t="s">
         <v>115</v>
       </c>
+      <c r="J31" t="s">
+        <v>601</v>
+      </c>
+      <c r="K31" t="s">
+        <v>601</v>
+      </c>
+      <c r="L31" t="s">
+        <v>601</v>
+      </c>
+      <c r="M31" t="s">
+        <v>601</v>
+      </c>
       <c r="N31" t="s">
         <v>116</v>
       </c>
@@ -3065,6 +3474,18 @@
       <c r="E32" t="s">
         <v>118</v>
       </c>
+      <c r="J32" t="s">
+        <v>601</v>
+      </c>
+      <c r="K32" t="s">
+        <v>601</v>
+      </c>
+      <c r="L32" t="s">
+        <v>602</v>
+      </c>
+      <c r="M32" t="s">
+        <v>602</v>
+      </c>
       <c r="N32" t="s">
         <v>119</v>
       </c>
@@ -3088,6 +3509,18 @@
       <c r="E33" t="s">
         <v>121</v>
       </c>
+      <c r="J33" t="s">
+        <v>601</v>
+      </c>
+      <c r="K33" t="s">
+        <v>601</v>
+      </c>
+      <c r="L33" t="s">
+        <v>601</v>
+      </c>
+      <c r="M33" t="s">
+        <v>601</v>
+      </c>
       <c r="N33" t="s">
         <v>122</v>
       </c>
@@ -3111,6 +3544,18 @@
       <c r="E34" t="s">
         <v>124</v>
       </c>
+      <c r="J34" t="s">
+        <v>601</v>
+      </c>
+      <c r="K34" t="s">
+        <v>601</v>
+      </c>
+      <c r="L34" t="s">
+        <v>601</v>
+      </c>
+      <c r="M34" t="s">
+        <v>601</v>
+      </c>
       <c r="N34" t="s">
         <v>125</v>
       </c>
@@ -3134,6 +3579,18 @@
       <c r="E35" t="s">
         <v>127</v>
       </c>
+      <c r="J35" t="s">
+        <v>601</v>
+      </c>
+      <c r="K35" t="s">
+        <v>601</v>
+      </c>
+      <c r="L35" t="s">
+        <v>602</v>
+      </c>
+      <c r="M35" t="s">
+        <v>602</v>
+      </c>
       <c r="N35" t="s">
         <v>128</v>
       </c>
@@ -3157,6 +3614,18 @@
       <c r="E36" t="s">
         <v>130</v>
       </c>
+      <c r="J36" t="s">
+        <v>601</v>
+      </c>
+      <c r="K36" t="s">
+        <v>601</v>
+      </c>
+      <c r="L36" t="s">
+        <v>602</v>
+      </c>
+      <c r="M36" t="s">
+        <v>602</v>
+      </c>
       <c r="N36" t="s">
         <v>131</v>
       </c>
@@ -3180,6 +3649,18 @@
       <c r="E37" t="s">
         <v>133</v>
       </c>
+      <c r="J37" t="s">
+        <v>601</v>
+      </c>
+      <c r="K37" t="s">
+        <v>601</v>
+      </c>
+      <c r="L37" t="s">
+        <v>602</v>
+      </c>
+      <c r="M37" t="s">
+        <v>602</v>
+      </c>
       <c r="N37" t="s">
         <v>131</v>
       </c>
@@ -3203,6 +3684,18 @@
       <c r="E38" t="s">
         <v>134</v>
       </c>
+      <c r="J38" t="s">
+        <v>601</v>
+      </c>
+      <c r="K38" t="s">
+        <v>601</v>
+      </c>
+      <c r="L38" t="s">
+        <v>601</v>
+      </c>
+      <c r="M38" t="s">
+        <v>601</v>
+      </c>
       <c r="N38" t="s">
         <v>135</v>
       </c>
@@ -3226,6 +3719,18 @@
       <c r="E39" t="s">
         <v>137</v>
       </c>
+      <c r="J39" t="s">
+        <v>601</v>
+      </c>
+      <c r="K39" t="s">
+        <v>601</v>
+      </c>
+      <c r="L39" t="s">
+        <v>602</v>
+      </c>
+      <c r="M39" t="s">
+        <v>602</v>
+      </c>
       <c r="N39" t="s">
         <v>138</v>
       </c>
@@ -3249,6 +3754,18 @@
       <c r="E40" t="s">
         <v>141</v>
       </c>
+      <c r="J40" t="s">
+        <v>601</v>
+      </c>
+      <c r="K40" t="s">
+        <v>601</v>
+      </c>
+      <c r="L40" t="s">
+        <v>602</v>
+      </c>
+      <c r="M40" t="s">
+        <v>602</v>
+      </c>
       <c r="N40" t="s">
         <v>142</v>
       </c>
@@ -3272,6 +3789,18 @@
       <c r="E41" t="s">
         <v>144</v>
       </c>
+      <c r="J41" t="s">
+        <v>601</v>
+      </c>
+      <c r="K41" t="s">
+        <v>601</v>
+      </c>
+      <c r="L41" t="s">
+        <v>602</v>
+      </c>
+      <c r="M41" t="s">
+        <v>602</v>
+      </c>
       <c r="N41" t="s">
         <v>145</v>
       </c>
@@ -3295,6 +3824,18 @@
       <c r="E42" t="s">
         <v>147</v>
       </c>
+      <c r="J42" t="s">
+        <v>601</v>
+      </c>
+      <c r="K42" t="s">
+        <v>601</v>
+      </c>
+      <c r="L42" t="s">
+        <v>602</v>
+      </c>
+      <c r="M42" t="s">
+        <v>602</v>
+      </c>
       <c r="N42" t="s">
         <v>148</v>
       </c>
@@ -3318,6 +3859,18 @@
       <c r="E43" t="s">
         <v>151</v>
       </c>
+      <c r="J43" t="s">
+        <v>601</v>
+      </c>
+      <c r="K43" t="s">
+        <v>601</v>
+      </c>
+      <c r="L43" t="s">
+        <v>602</v>
+      </c>
+      <c r="M43" t="s">
+        <v>602</v>
+      </c>
       <c r="N43" t="s">
         <v>152</v>
       </c>
@@ -3341,6 +3894,18 @@
       <c r="E44" t="s">
         <v>154</v>
       </c>
+      <c r="J44" t="s">
+        <v>601</v>
+      </c>
+      <c r="K44" t="s">
+        <v>601</v>
+      </c>
+      <c r="L44" t="s">
+        <v>601</v>
+      </c>
+      <c r="M44" t="s">
+        <v>601</v>
+      </c>
       <c r="N44" t="s">
         <v>152</v>
       </c>
@@ -3364,6 +3929,18 @@
       <c r="E45" t="s">
         <v>155</v>
       </c>
+      <c r="J45" t="s">
+        <v>601</v>
+      </c>
+      <c r="K45" t="s">
+        <v>601</v>
+      </c>
+      <c r="L45" t="s">
+        <v>602</v>
+      </c>
+      <c r="M45" t="s">
+        <v>602</v>
+      </c>
       <c r="N45" t="s">
         <v>156</v>
       </c>
@@ -3387,6 +3964,18 @@
       <c r="E46" t="s">
         <v>159</v>
       </c>
+      <c r="J46" t="s">
+        <v>601</v>
+      </c>
+      <c r="K46" t="s">
+        <v>601</v>
+      </c>
+      <c r="L46" t="s">
+        <v>601</v>
+      </c>
+      <c r="M46" t="s">
+        <v>601</v>
+      </c>
       <c r="N46" t="s">
         <v>160</v>
       </c>
@@ -3410,6 +3999,18 @@
       <c r="E47" t="s">
         <v>162</v>
       </c>
+      <c r="J47" t="s">
+        <v>601</v>
+      </c>
+      <c r="K47" t="s">
+        <v>601</v>
+      </c>
+      <c r="L47" t="s">
+        <v>601</v>
+      </c>
+      <c r="M47" t="s">
+        <v>601</v>
+      </c>
       <c r="N47" t="s">
         <v>163</v>
       </c>
@@ -3433,6 +4034,18 @@
       <c r="E48" t="s">
         <v>166</v>
       </c>
+      <c r="J48" t="s">
+        <v>601</v>
+      </c>
+      <c r="K48" t="s">
+        <v>601</v>
+      </c>
+      <c r="L48" t="s">
+        <v>601</v>
+      </c>
+      <c r="M48" t="s">
+        <v>601</v>
+      </c>
       <c r="N48" t="s">
         <v>167</v>
       </c>
@@ -3456,6 +4069,18 @@
       <c r="E49" t="s">
         <v>170</v>
       </c>
+      <c r="J49" t="s">
+        <v>601</v>
+      </c>
+      <c r="K49" t="s">
+        <v>601</v>
+      </c>
+      <c r="L49" t="s">
+        <v>601</v>
+      </c>
+      <c r="M49" t="s">
+        <v>601</v>
+      </c>
       <c r="N49" t="s">
         <v>167</v>
       </c>
@@ -3479,6 +4104,15 @@
       <c r="E50" t="s">
         <v>171</v>
       </c>
+      <c r="J50" t="s">
+        <v>601</v>
+      </c>
+      <c r="K50" t="s">
+        <v>601</v>
+      </c>
+      <c r="L50" t="s">
+        <v>601</v>
+      </c>
       <c r="N50" t="s">
         <v>172</v>
       </c>
@@ -3502,6 +4136,18 @@
       <c r="E51" t="s">
         <v>171</v>
       </c>
+      <c r="J51" t="s">
+        <v>602</v>
+      </c>
+      <c r="K51" t="s">
+        <v>602</v>
+      </c>
+      <c r="L51" t="s">
+        <v>602</v>
+      </c>
+      <c r="M51" t="s">
+        <v>602</v>
+      </c>
       <c r="N51" t="s">
         <v>174</v>
       </c>
@@ -3525,6 +4171,18 @@
       <c r="E52" t="s">
         <v>176</v>
       </c>
+      <c r="J52" t="s">
+        <v>601</v>
+      </c>
+      <c r="K52" t="s">
+        <v>601</v>
+      </c>
+      <c r="L52" t="s">
+        <v>601</v>
+      </c>
+      <c r="M52" t="s">
+        <v>601</v>
+      </c>
       <c r="N52" t="s">
         <v>177</v>
       </c>
@@ -3548,6 +4206,18 @@
       <c r="E53" t="s">
         <v>179</v>
       </c>
+      <c r="J53" t="s">
+        <v>601</v>
+      </c>
+      <c r="K53" t="s">
+        <v>601</v>
+      </c>
+      <c r="L53" t="s">
+        <v>601</v>
+      </c>
+      <c r="M53" t="s">
+        <v>601</v>
+      </c>
       <c r="N53" t="s">
         <v>180</v>
       </c>
@@ -3617,6 +4287,18 @@
       <c r="E56" t="s">
         <v>191</v>
       </c>
+      <c r="J56" t="s">
+        <v>601</v>
+      </c>
+      <c r="K56" t="s">
+        <v>601</v>
+      </c>
+      <c r="L56" t="s">
+        <v>602</v>
+      </c>
+      <c r="M56" t="s">
+        <v>602</v>
+      </c>
       <c r="N56" t="s">
         <v>192</v>
       </c>
@@ -3640,6 +4322,18 @@
       <c r="E57" t="s">
         <v>194</v>
       </c>
+      <c r="J57" t="s">
+        <v>601</v>
+      </c>
+      <c r="K57" t="s">
+        <v>601</v>
+      </c>
+      <c r="L57" t="s">
+        <v>601</v>
+      </c>
+      <c r="M57" t="s">
+        <v>601</v>
+      </c>
       <c r="N57" t="s">
         <v>195</v>
       </c>
@@ -3663,6 +4357,18 @@
       <c r="E58" t="s">
         <v>199</v>
       </c>
+      <c r="J58" t="s">
+        <v>601</v>
+      </c>
+      <c r="K58" t="s">
+        <v>601</v>
+      </c>
+      <c r="L58" t="s">
+        <v>601</v>
+      </c>
+      <c r="M58" t="s">
+        <v>602</v>
+      </c>
       <c r="N58" t="s">
         <v>200</v>
       </c>
@@ -3686,6 +4392,18 @@
       <c r="E59" t="s">
         <v>202</v>
       </c>
+      <c r="J59" t="s">
+        <v>601</v>
+      </c>
+      <c r="K59" t="s">
+        <v>601</v>
+      </c>
+      <c r="L59" t="s">
+        <v>601</v>
+      </c>
+      <c r="M59" t="s">
+        <v>602</v>
+      </c>
       <c r="N59" t="s">
         <v>203</v>
       </c>
@@ -3709,6 +4427,18 @@
       <c r="E60" t="s">
         <v>205</v>
       </c>
+      <c r="J60" t="s">
+        <v>601</v>
+      </c>
+      <c r="K60" t="s">
+        <v>601</v>
+      </c>
+      <c r="L60" t="s">
+        <v>601</v>
+      </c>
+      <c r="M60" t="s">
+        <v>601</v>
+      </c>
       <c r="N60" t="s">
         <v>206</v>
       </c>
@@ -3732,6 +4462,18 @@
       <c r="E61" t="s">
         <v>208</v>
       </c>
+      <c r="J61" t="s">
+        <v>601</v>
+      </c>
+      <c r="K61" t="s">
+        <v>601</v>
+      </c>
+      <c r="L61" t="s">
+        <v>601</v>
+      </c>
+      <c r="M61" t="s">
+        <v>602</v>
+      </c>
       <c r="N61" t="s">
         <v>209</v>
       </c>
@@ -3755,6 +4497,18 @@
       <c r="E62" t="s">
         <v>211</v>
       </c>
+      <c r="J62" t="s">
+        <v>601</v>
+      </c>
+      <c r="K62" t="s">
+        <v>601</v>
+      </c>
+      <c r="L62" t="s">
+        <v>601</v>
+      </c>
+      <c r="M62" t="s">
+        <v>602</v>
+      </c>
       <c r="N62" t="s">
         <v>212</v>
       </c>
@@ -3778,6 +4532,18 @@
       <c r="E63" t="s">
         <v>214</v>
       </c>
+      <c r="J63" t="s">
+        <v>601</v>
+      </c>
+      <c r="K63" t="s">
+        <v>601</v>
+      </c>
+      <c r="L63" t="s">
+        <v>601</v>
+      </c>
+      <c r="M63" t="s">
+        <v>601</v>
+      </c>
       <c r="N63" t="s">
         <v>215</v>
       </c>
@@ -3801,6 +4567,18 @@
       <c r="E64" t="s">
         <v>217</v>
       </c>
+      <c r="J64" t="s">
+        <v>602</v>
+      </c>
+      <c r="K64" t="s">
+        <v>602</v>
+      </c>
+      <c r="L64" t="s">
+        <v>602</v>
+      </c>
+      <c r="M64" t="s">
+        <v>602</v>
+      </c>
       <c r="N64" t="s">
         <v>215</v>
       </c>
@@ -3916,6 +4694,18 @@
       <c r="E69" t="s">
         <v>233</v>
       </c>
+      <c r="J69" t="s">
+        <v>601</v>
+      </c>
+      <c r="K69" t="s">
+        <v>601</v>
+      </c>
+      <c r="L69" t="s">
+        <v>601</v>
+      </c>
+      <c r="M69" t="s">
+        <v>601</v>
+      </c>
       <c r="N69" t="s">
         <v>234</v>
       </c>
@@ -3939,6 +4729,18 @@
       <c r="E70" t="s">
         <v>236</v>
       </c>
+      <c r="J70" t="s">
+        <v>601</v>
+      </c>
+      <c r="K70" t="s">
+        <v>601</v>
+      </c>
+      <c r="L70" t="s">
+        <v>601</v>
+      </c>
+      <c r="M70" t="s">
+        <v>601</v>
+      </c>
       <c r="N70" t="s">
         <v>237</v>
       </c>
@@ -3962,6 +4764,18 @@
       <c r="E71" t="s">
         <v>239</v>
       </c>
+      <c r="J71" t="s">
+        <v>601</v>
+      </c>
+      <c r="K71" t="s">
+        <v>601</v>
+      </c>
+      <c r="L71" t="s">
+        <v>602</v>
+      </c>
+      <c r="M71" t="s">
+        <v>602</v>
+      </c>
       <c r="N71" t="s">
         <v>240</v>
       </c>
@@ -3985,6 +4799,18 @@
       <c r="E72" t="s">
         <v>243</v>
       </c>
+      <c r="J72" t="s">
+        <v>601</v>
+      </c>
+      <c r="K72" t="s">
+        <v>601</v>
+      </c>
+      <c r="L72" t="s">
+        <v>601</v>
+      </c>
+      <c r="M72" t="s">
+        <v>601</v>
+      </c>
       <c r="N72" t="s">
         <v>195</v>
       </c>
@@ -4008,6 +4834,18 @@
       <c r="E73" t="s">
         <v>243</v>
       </c>
+      <c r="J73" t="s">
+        <v>602</v>
+      </c>
+      <c r="K73" t="s">
+        <v>602</v>
+      </c>
+      <c r="L73" t="s">
+        <v>602</v>
+      </c>
+      <c r="M73" t="s">
+        <v>602</v>
+      </c>
       <c r="N73" t="s">
         <v>244</v>
       </c>
@@ -4031,6 +4869,18 @@
       <c r="E74" t="s">
         <v>246</v>
       </c>
+      <c r="J74" t="s">
+        <v>601</v>
+      </c>
+      <c r="K74" t="s">
+        <v>601</v>
+      </c>
+      <c r="L74" t="s">
+        <v>602</v>
+      </c>
+      <c r="M74" t="s">
+        <v>602</v>
+      </c>
       <c r="N74" t="s">
         <v>247</v>
       </c>
@@ -4054,6 +4904,18 @@
       <c r="E75" t="s">
         <v>249</v>
       </c>
+      <c r="J75" t="s">
+        <v>601</v>
+      </c>
+      <c r="K75" t="s">
+        <v>601</v>
+      </c>
+      <c r="L75" t="s">
+        <v>602</v>
+      </c>
+      <c r="M75" t="s">
+        <v>602</v>
+      </c>
       <c r="N75" t="s">
         <v>247</v>
       </c>
@@ -4077,6 +4939,18 @@
       <c r="E76" t="s">
         <v>250</v>
       </c>
+      <c r="J76" t="s">
+        <v>601</v>
+      </c>
+      <c r="K76" t="s">
+        <v>601</v>
+      </c>
+      <c r="L76" t="s">
+        <v>601</v>
+      </c>
+      <c r="M76" t="s">
+        <v>601</v>
+      </c>
       <c r="N76" t="s">
         <v>251</v>
       </c>
@@ -4100,6 +4974,18 @@
       <c r="E77" t="s">
         <v>254</v>
       </c>
+      <c r="J77" t="s">
+        <v>601</v>
+      </c>
+      <c r="K77" t="s">
+        <v>601</v>
+      </c>
+      <c r="L77" t="s">
+        <v>602</v>
+      </c>
+      <c r="M77" t="s">
+        <v>602</v>
+      </c>
       <c r="N77" t="s">
         <v>255</v>
       </c>
@@ -4123,6 +5009,18 @@
       <c r="E78" t="s">
         <v>257</v>
       </c>
+      <c r="J78" t="s">
+        <v>601</v>
+      </c>
+      <c r="K78" t="s">
+        <v>601</v>
+      </c>
+      <c r="L78" t="s">
+        <v>601</v>
+      </c>
+      <c r="M78" t="s">
+        <v>601</v>
+      </c>
       <c r="N78" t="s">
         <v>258</v>
       </c>
@@ -4146,6 +5044,18 @@
       <c r="E79" t="s">
         <v>260</v>
       </c>
+      <c r="J79" t="s">
+        <v>601</v>
+      </c>
+      <c r="K79" t="s">
+        <v>601</v>
+      </c>
+      <c r="L79" t="s">
+        <v>601</v>
+      </c>
+      <c r="M79" t="s">
+        <v>601</v>
+      </c>
       <c r="N79" t="s">
         <v>261</v>
       </c>
@@ -4169,6 +5079,18 @@
       <c r="E80" t="s">
         <v>263</v>
       </c>
+      <c r="J80" t="s">
+        <v>601</v>
+      </c>
+      <c r="K80" t="s">
+        <v>601</v>
+      </c>
+      <c r="L80" t="s">
+        <v>602</v>
+      </c>
+      <c r="M80" t="s">
+        <v>602</v>
+      </c>
       <c r="N80" t="s">
         <v>264</v>
       </c>
@@ -4192,6 +5114,18 @@
       <c r="E81" t="s">
         <v>266</v>
       </c>
+      <c r="J81" t="s">
+        <v>601</v>
+      </c>
+      <c r="K81" t="s">
+        <v>601</v>
+      </c>
+      <c r="L81" t="s">
+        <v>602</v>
+      </c>
+      <c r="M81" t="s">
+        <v>602</v>
+      </c>
       <c r="N81" t="s">
         <v>267</v>
       </c>
@@ -4215,6 +5149,18 @@
       <c r="E82" t="s">
         <v>270</v>
       </c>
+      <c r="J82" t="s">
+        <v>601</v>
+      </c>
+      <c r="K82" t="s">
+        <v>601</v>
+      </c>
+      <c r="L82" t="s">
+        <v>601</v>
+      </c>
+      <c r="M82" t="s">
+        <v>601</v>
+      </c>
       <c r="N82" t="s">
         <v>271</v>
       </c>
@@ -4238,6 +5184,18 @@
       <c r="E83" t="s">
         <v>273</v>
       </c>
+      <c r="J83" t="s">
+        <v>601</v>
+      </c>
+      <c r="K83" t="s">
+        <v>601</v>
+      </c>
+      <c r="L83" t="s">
+        <v>601</v>
+      </c>
+      <c r="M83" t="s">
+        <v>601</v>
+      </c>
       <c r="N83" t="s">
         <v>271</v>
       </c>
@@ -4261,6 +5219,18 @@
       <c r="E84" t="s">
         <v>274</v>
       </c>
+      <c r="J84" t="s">
+        <v>601</v>
+      </c>
+      <c r="K84" t="s">
+        <v>601</v>
+      </c>
+      <c r="L84" t="s">
+        <v>601</v>
+      </c>
+      <c r="M84" t="s">
+        <v>601</v>
+      </c>
       <c r="N84" t="s">
         <v>271</v>
       </c>
@@ -4284,6 +5254,18 @@
       <c r="E85" t="s">
         <v>276</v>
       </c>
+      <c r="J85" t="s">
+        <v>601</v>
+      </c>
+      <c r="K85" t="s">
+        <v>601</v>
+      </c>
+      <c r="L85" t="s">
+        <v>602</v>
+      </c>
+      <c r="M85" t="s">
+        <v>602</v>
+      </c>
       <c r="N85" t="s">
         <v>277</v>
       </c>
@@ -4307,6 +5289,18 @@
       <c r="E86" t="s">
         <v>279</v>
       </c>
+      <c r="J86" t="s">
+        <v>601</v>
+      </c>
+      <c r="K86" t="s">
+        <v>601</v>
+      </c>
+      <c r="L86" t="s">
+        <v>601</v>
+      </c>
+      <c r="M86" t="s">
+        <v>601</v>
+      </c>
       <c r="N86" t="s">
         <v>280</v>
       </c>
@@ -4330,6 +5324,18 @@
       <c r="E87" t="s">
         <v>282</v>
       </c>
+      <c r="J87" t="s">
+        <v>601</v>
+      </c>
+      <c r="K87" t="s">
+        <v>601</v>
+      </c>
+      <c r="L87" t="s">
+        <v>602</v>
+      </c>
+      <c r="M87" t="s">
+        <v>602</v>
+      </c>
       <c r="N87" t="s">
         <v>283</v>
       </c>
@@ -4353,6 +5359,18 @@
       <c r="E88" t="s">
         <v>285</v>
       </c>
+      <c r="J88" t="s">
+        <v>601</v>
+      </c>
+      <c r="K88" t="s">
+        <v>601</v>
+      </c>
+      <c r="L88" t="s">
+        <v>602</v>
+      </c>
+      <c r="M88" t="s">
+        <v>602</v>
+      </c>
       <c r="N88" t="s">
         <v>286</v>
       </c>
@@ -4376,6 +5394,18 @@
       <c r="E89" t="s">
         <v>289</v>
       </c>
+      <c r="J89" t="s">
+        <v>601</v>
+      </c>
+      <c r="K89" t="s">
+        <v>601</v>
+      </c>
+      <c r="L89" t="s">
+        <v>602</v>
+      </c>
+      <c r="M89" t="s">
+        <v>602</v>
+      </c>
       <c r="N89" t="s">
         <v>290</v>
       </c>
@@ -4399,6 +5429,18 @@
       <c r="E90" t="s">
         <v>292</v>
       </c>
+      <c r="J90" t="s">
+        <v>601</v>
+      </c>
+      <c r="K90" t="s">
+        <v>601</v>
+      </c>
+      <c r="L90" t="s">
+        <v>602</v>
+      </c>
+      <c r="M90" t="s">
+        <v>602</v>
+      </c>
       <c r="N90" t="s">
         <v>293</v>
       </c>
@@ -4422,6 +5464,18 @@
       <c r="E91" t="s">
         <v>295</v>
       </c>
+      <c r="J91" t="s">
+        <v>601</v>
+      </c>
+      <c r="K91" t="s">
+        <v>601</v>
+      </c>
+      <c r="L91" t="s">
+        <v>602</v>
+      </c>
+      <c r="M91" t="s">
+        <v>602</v>
+      </c>
       <c r="N91" t="s">
         <v>296</v>
       </c>
@@ -4445,6 +5499,18 @@
       <c r="E92" t="s">
         <v>295</v>
       </c>
+      <c r="J92" t="s">
+        <v>602</v>
+      </c>
+      <c r="K92" t="s">
+        <v>602</v>
+      </c>
+      <c r="L92" t="s">
+        <v>602</v>
+      </c>
+      <c r="M92" t="s">
+        <v>602</v>
+      </c>
       <c r="N92" t="s">
         <v>298</v>
       </c>
@@ -4468,6 +5534,18 @@
       <c r="E93" t="s">
         <v>300</v>
       </c>
+      <c r="J93" t="s">
+        <v>601</v>
+      </c>
+      <c r="K93" t="s">
+        <v>601</v>
+      </c>
+      <c r="L93" t="s">
+        <v>602</v>
+      </c>
+      <c r="M93" t="s">
+        <v>602</v>
+      </c>
       <c r="N93" t="s">
         <v>301</v>
       </c>
@@ -4491,6 +5569,18 @@
       <c r="E94" t="s">
         <v>300</v>
       </c>
+      <c r="J94" t="s">
+        <v>602</v>
+      </c>
+      <c r="K94" t="s">
+        <v>602</v>
+      </c>
+      <c r="L94" t="s">
+        <v>602</v>
+      </c>
+      <c r="M94" t="s">
+        <v>602</v>
+      </c>
       <c r="N94" t="s">
         <v>303</v>
       </c>
@@ -4514,6 +5604,18 @@
       <c r="E95" t="s">
         <v>306</v>
       </c>
+      <c r="J95" t="s">
+        <v>601</v>
+      </c>
+      <c r="K95" t="s">
+        <v>601</v>
+      </c>
+      <c r="L95" t="s">
+        <v>601</v>
+      </c>
+      <c r="M95" t="s">
+        <v>601</v>
+      </c>
       <c r="N95" t="s">
         <v>307</v>
       </c>
@@ -4537,6 +5639,18 @@
       <c r="E96" t="s">
         <v>309</v>
       </c>
+      <c r="J96" t="s">
+        <v>601</v>
+      </c>
+      <c r="K96" t="s">
+        <v>601</v>
+      </c>
+      <c r="L96" t="s">
+        <v>601</v>
+      </c>
+      <c r="M96" t="s">
+        <v>601</v>
+      </c>
       <c r="N96" t="s">
         <v>310</v>
       </c>
@@ -4560,6 +5674,18 @@
       <c r="E97" t="s">
         <v>313</v>
       </c>
+      <c r="J97" t="s">
+        <v>601</v>
+      </c>
+      <c r="K97" t="s">
+        <v>601</v>
+      </c>
+      <c r="L97" t="s">
+        <v>601</v>
+      </c>
+      <c r="M97" t="s">
+        <v>601</v>
+      </c>
       <c r="N97" t="s">
         <v>314</v>
       </c>
@@ -4583,6 +5709,18 @@
       <c r="E98" t="s">
         <v>316</v>
       </c>
+      <c r="J98" t="s">
+        <v>602</v>
+      </c>
+      <c r="K98" t="s">
+        <v>602</v>
+      </c>
+      <c r="L98" t="s">
+        <v>602</v>
+      </c>
+      <c r="M98" t="s">
+        <v>602</v>
+      </c>
       <c r="N98" t="s">
         <v>317</v>
       </c>
@@ -4606,6 +5744,18 @@
       <c r="E99" t="s">
         <v>319</v>
       </c>
+      <c r="J99" t="s">
+        <v>601</v>
+      </c>
+      <c r="K99" t="s">
+        <v>601</v>
+      </c>
+      <c r="L99" t="s">
+        <v>601</v>
+      </c>
+      <c r="M99" t="s">
+        <v>601</v>
+      </c>
       <c r="N99" t="s">
         <v>320</v>
       </c>
@@ -4629,6 +5779,18 @@
       <c r="E100" t="s">
         <v>322</v>
       </c>
+      <c r="J100" t="s">
+        <v>601</v>
+      </c>
+      <c r="K100" t="s">
+        <v>601</v>
+      </c>
+      <c r="L100" t="s">
+        <v>601</v>
+      </c>
+      <c r="M100" t="s">
+        <v>601</v>
+      </c>
       <c r="N100" t="s">
         <v>323</v>
       </c>
@@ -4652,6 +5814,18 @@
       <c r="E101" t="s">
         <v>325</v>
       </c>
+      <c r="J101" t="s">
+        <v>601</v>
+      </c>
+      <c r="K101" t="s">
+        <v>601</v>
+      </c>
+      <c r="L101" t="s">
+        <v>601</v>
+      </c>
+      <c r="M101" t="s">
+        <v>601</v>
+      </c>
       <c r="N101" t="s">
         <v>323</v>
       </c>
@@ -4675,6 +5849,18 @@
       <c r="E102" t="s">
         <v>326</v>
       </c>
+      <c r="J102" t="s">
+        <v>601</v>
+      </c>
+      <c r="K102" t="s">
+        <v>601</v>
+      </c>
+      <c r="L102" t="s">
+        <v>601</v>
+      </c>
+      <c r="M102" t="s">
+        <v>601</v>
+      </c>
       <c r="N102" t="s">
         <v>327</v>
       </c>
@@ -4698,6 +5884,18 @@
       <c r="E103" t="s">
         <v>329</v>
       </c>
+      <c r="J103" t="s">
+        <v>601</v>
+      </c>
+      <c r="K103" t="s">
+        <v>601</v>
+      </c>
+      <c r="L103" t="s">
+        <v>601</v>
+      </c>
+      <c r="M103" t="s">
+        <v>601</v>
+      </c>
       <c r="N103" t="s">
         <v>330</v>
       </c>
@@ -4721,6 +5919,18 @@
       <c r="E104" t="s">
         <v>332</v>
       </c>
+      <c r="J104" t="s">
+        <v>601</v>
+      </c>
+      <c r="K104" t="s">
+        <v>601</v>
+      </c>
+      <c r="L104" t="s">
+        <v>601</v>
+      </c>
+      <c r="M104" t="s">
+        <v>601</v>
+      </c>
       <c r="N104" t="s">
         <v>333</v>
       </c>
@@ -4744,6 +5954,18 @@
       <c r="E105" t="s">
         <v>335</v>
       </c>
+      <c r="J105" t="s">
+        <v>601</v>
+      </c>
+      <c r="K105" t="s">
+        <v>601</v>
+      </c>
+      <c r="L105" t="s">
+        <v>601</v>
+      </c>
+      <c r="M105" t="s">
+        <v>601</v>
+      </c>
       <c r="N105" t="s">
         <v>336</v>
       </c>
@@ -4767,6 +5989,18 @@
       <c r="E106" t="s">
         <v>338</v>
       </c>
+      <c r="J106" t="s">
+        <v>601</v>
+      </c>
+      <c r="K106" t="s">
+        <v>601</v>
+      </c>
+      <c r="L106" t="s">
+        <v>601</v>
+      </c>
+      <c r="M106" t="s">
+        <v>601</v>
+      </c>
       <c r="N106" t="s">
         <v>339</v>
       </c>
@@ -4790,6 +6024,18 @@
       <c r="E107" t="s">
         <v>341</v>
       </c>
+      <c r="J107" t="s">
+        <v>601</v>
+      </c>
+      <c r="K107" t="s">
+        <v>601</v>
+      </c>
+      <c r="L107" t="s">
+        <v>601</v>
+      </c>
+      <c r="M107" t="s">
+        <v>601</v>
+      </c>
       <c r="N107" t="s">
         <v>342</v>
       </c>
@@ -4813,6 +6059,18 @@
       <c r="E108" t="s">
         <v>344</v>
       </c>
+      <c r="J108" t="s">
+        <v>601</v>
+      </c>
+      <c r="K108" t="s">
+        <v>601</v>
+      </c>
+      <c r="L108" t="s">
+        <v>601</v>
+      </c>
+      <c r="M108" t="s">
+        <v>601</v>
+      </c>
       <c r="N108" t="s">
         <v>345</v>
       </c>
@@ -4836,6 +6094,18 @@
       <c r="E109" t="s">
         <v>347</v>
       </c>
+      <c r="J109" t="s">
+        <v>601</v>
+      </c>
+      <c r="K109" t="s">
+        <v>601</v>
+      </c>
+      <c r="L109" t="s">
+        <v>601</v>
+      </c>
+      <c r="M109" t="s">
+        <v>601</v>
+      </c>
       <c r="N109" t="s">
         <v>345</v>
       </c>
@@ -4859,6 +6129,18 @@
       <c r="E110" t="s">
         <v>348</v>
       </c>
+      <c r="J110" t="s">
+        <v>601</v>
+      </c>
+      <c r="K110" t="s">
+        <v>601</v>
+      </c>
+      <c r="L110" t="s">
+        <v>601</v>
+      </c>
+      <c r="M110" t="s">
+        <v>601</v>
+      </c>
       <c r="N110" t="s">
         <v>349</v>
       </c>
@@ -4882,6 +6164,18 @@
       <c r="E111" t="s">
         <v>351</v>
       </c>
+      <c r="J111" t="s">
+        <v>601</v>
+      </c>
+      <c r="K111" t="s">
+        <v>601</v>
+      </c>
+      <c r="L111" t="s">
+        <v>601</v>
+      </c>
+      <c r="M111" t="s">
+        <v>601</v>
+      </c>
       <c r="N111" t="s">
         <v>352</v>
       </c>
@@ -4905,6 +6199,18 @@
       <c r="E112" t="s">
         <v>354</v>
       </c>
+      <c r="J112" t="s">
+        <v>601</v>
+      </c>
+      <c r="K112" t="s">
+        <v>601</v>
+      </c>
+      <c r="L112" t="s">
+        <v>601</v>
+      </c>
+      <c r="M112" t="s">
+        <v>601</v>
+      </c>
       <c r="N112" t="s">
         <v>355</v>
       </c>
@@ -4928,6 +6234,18 @@
       <c r="E113" t="s">
         <v>357</v>
       </c>
+      <c r="J113" t="s">
+        <v>601</v>
+      </c>
+      <c r="K113" t="s">
+        <v>601</v>
+      </c>
+      <c r="L113" t="s">
+        <v>601</v>
+      </c>
+      <c r="M113" t="s">
+        <v>601</v>
+      </c>
       <c r="N113" t="s">
         <v>358</v>
       </c>
@@ -4951,6 +6269,18 @@
       <c r="E114" t="s">
         <v>360</v>
       </c>
+      <c r="J114" t="s">
+        <v>601</v>
+      </c>
+      <c r="K114" t="s">
+        <v>601</v>
+      </c>
+      <c r="L114" t="s">
+        <v>601</v>
+      </c>
+      <c r="M114" t="s">
+        <v>601</v>
+      </c>
       <c r="N114" t="s">
         <v>361</v>
       </c>
@@ -4974,6 +6304,18 @@
       <c r="E115" t="s">
         <v>364</v>
       </c>
+      <c r="J115" t="s">
+        <v>601</v>
+      </c>
+      <c r="K115" t="s">
+        <v>601</v>
+      </c>
+      <c r="L115" t="s">
+        <v>602</v>
+      </c>
+      <c r="M115" t="s">
+        <v>602</v>
+      </c>
       <c r="N115" t="s">
         <v>303</v>
       </c>
@@ -4997,6 +6339,18 @@
       <c r="E116" t="s">
         <v>364</v>
       </c>
+      <c r="J116" t="s">
+        <v>602</v>
+      </c>
+      <c r="K116" t="s">
+        <v>602</v>
+      </c>
+      <c r="L116" t="s">
+        <v>602</v>
+      </c>
+      <c r="M116" t="s">
+        <v>602</v>
+      </c>
       <c r="N116" t="s">
         <v>365</v>
       </c>
@@ -5020,6 +6374,18 @@
       <c r="E117" t="s">
         <v>367</v>
       </c>
+      <c r="J117" t="s">
+        <v>601</v>
+      </c>
+      <c r="K117" t="s">
+        <v>601</v>
+      </c>
+      <c r="L117" t="s">
+        <v>602</v>
+      </c>
+      <c r="M117" t="s">
+        <v>602</v>
+      </c>
       <c r="N117" t="s">
         <v>368</v>
       </c>
@@ -5043,6 +6409,18 @@
       <c r="E118" t="s">
         <v>370</v>
       </c>
+      <c r="J118" t="s">
+        <v>601</v>
+      </c>
+      <c r="K118" t="s">
+        <v>601</v>
+      </c>
+      <c r="L118" t="s">
+        <v>602</v>
+      </c>
+      <c r="M118" t="s">
+        <v>602</v>
+      </c>
       <c r="N118" t="s">
         <v>371</v>
       </c>
@@ -5066,6 +6444,18 @@
       <c r="E119" t="s">
         <v>374</v>
       </c>
+      <c r="J119" t="s">
+        <v>601</v>
+      </c>
+      <c r="K119" t="s">
+        <v>601</v>
+      </c>
+      <c r="L119" t="s">
+        <v>601</v>
+      </c>
+      <c r="M119" t="s">
+        <v>601</v>
+      </c>
       <c r="N119" t="s">
         <v>375</v>
       </c>
@@ -5089,6 +6479,18 @@
       <c r="E120" t="s">
         <v>377</v>
       </c>
+      <c r="J120" t="s">
+        <v>601</v>
+      </c>
+      <c r="K120" t="s">
+        <v>601</v>
+      </c>
+      <c r="L120" t="s">
+        <v>601</v>
+      </c>
+      <c r="M120" t="s">
+        <v>601</v>
+      </c>
       <c r="N120" t="s">
         <v>378</v>
       </c>
@@ -5112,6 +6514,18 @@
       <c r="E121" t="s">
         <v>380</v>
       </c>
+      <c r="J121" t="s">
+        <v>601</v>
+      </c>
+      <c r="K121" t="s">
+        <v>601</v>
+      </c>
+      <c r="L121" t="s">
+        <v>601</v>
+      </c>
+      <c r="M121" t="s">
+        <v>601</v>
+      </c>
       <c r="N121" t="s">
         <v>381</v>
       </c>
@@ -5135,6 +6549,18 @@
       <c r="E122" t="s">
         <v>384</v>
       </c>
+      <c r="J122" t="s">
+        <v>601</v>
+      </c>
+      <c r="K122" t="s">
+        <v>601</v>
+      </c>
+      <c r="L122" t="s">
+        <v>602</v>
+      </c>
+      <c r="M122" t="s">
+        <v>602</v>
+      </c>
       <c r="N122" t="s">
         <v>385</v>
       </c>
@@ -5158,6 +6584,18 @@
       <c r="E123" t="s">
         <v>387</v>
       </c>
+      <c r="J123" t="s">
+        <v>601</v>
+      </c>
+      <c r="K123" t="s">
+        <v>601</v>
+      </c>
+      <c r="L123" t="s">
+        <v>602</v>
+      </c>
+      <c r="M123" t="s">
+        <v>602</v>
+      </c>
       <c r="N123" t="s">
         <v>388</v>
       </c>
@@ -5181,6 +6619,18 @@
       <c r="E124" t="s">
         <v>390</v>
       </c>
+      <c r="J124" t="s">
+        <v>601</v>
+      </c>
+      <c r="K124" t="s">
+        <v>601</v>
+      </c>
+      <c r="L124" t="s">
+        <v>602</v>
+      </c>
+      <c r="M124" t="s">
+        <v>602</v>
+      </c>
       <c r="N124" t="s">
         <v>391</v>
       </c>
@@ -5204,6 +6654,18 @@
       <c r="E125" t="s">
         <v>393</v>
       </c>
+      <c r="J125" t="s">
+        <v>601</v>
+      </c>
+      <c r="K125" t="s">
+        <v>601</v>
+      </c>
+      <c r="L125" t="s">
+        <v>602</v>
+      </c>
+      <c r="M125" t="s">
+        <v>602</v>
+      </c>
       <c r="N125" t="s">
         <v>394</v>
       </c>
@@ -5227,6 +6689,18 @@
       <c r="E126" t="s">
         <v>396</v>
       </c>
+      <c r="J126" t="s">
+        <v>601</v>
+      </c>
+      <c r="K126" t="s">
+        <v>601</v>
+      </c>
+      <c r="L126" t="s">
+        <v>601</v>
+      </c>
+      <c r="M126" t="s">
+        <v>601</v>
+      </c>
       <c r="N126" t="s">
         <v>397</v>
       </c>
@@ -5250,6 +6724,18 @@
       <c r="E127" t="s">
         <v>401</v>
       </c>
+      <c r="J127" t="s">
+        <v>602</v>
+      </c>
+      <c r="K127" t="s">
+        <v>602</v>
+      </c>
+      <c r="L127" t="s">
+        <v>602</v>
+      </c>
+      <c r="M127" t="s">
+        <v>602</v>
+      </c>
       <c r="N127" t="s">
         <v>402</v>
       </c>
@@ -5273,6 +6759,18 @@
       <c r="E128" t="s">
         <v>404</v>
       </c>
+      <c r="J128" t="s">
+        <v>602</v>
+      </c>
+      <c r="K128" t="s">
+        <v>602</v>
+      </c>
+      <c r="L128" t="s">
+        <v>602</v>
+      </c>
+      <c r="M128" t="s">
+        <v>602</v>
+      </c>
       <c r="N128" t="s">
         <v>405</v>
       </c>
@@ -5296,6 +6794,18 @@
       <c r="E129" t="s">
         <v>407</v>
       </c>
+      <c r="J129" t="s">
+        <v>601</v>
+      </c>
+      <c r="K129" t="s">
+        <v>601</v>
+      </c>
+      <c r="L129" t="s">
+        <v>601</v>
+      </c>
+      <c r="M129" t="s">
+        <v>601</v>
+      </c>
       <c r="N129" t="s">
         <v>408</v>
       </c>
@@ -5319,6 +6829,18 @@
       <c r="E130" t="s">
         <v>410</v>
       </c>
+      <c r="J130" t="s">
+        <v>602</v>
+      </c>
+      <c r="K130" t="s">
+        <v>602</v>
+      </c>
+      <c r="L130" t="s">
+        <v>602</v>
+      </c>
+      <c r="M130" t="s">
+        <v>602</v>
+      </c>
       <c r="N130" t="s">
         <v>411</v>
       </c>
@@ -5342,6 +6864,18 @@
       <c r="E131" t="s">
         <v>413</v>
       </c>
+      <c r="J131" t="s">
+        <v>602</v>
+      </c>
+      <c r="K131" t="s">
+        <v>602</v>
+      </c>
+      <c r="L131" t="s">
+        <v>602</v>
+      </c>
+      <c r="M131" t="s">
+        <v>602</v>
+      </c>
       <c r="N131" t="s">
         <v>414</v>
       </c>
@@ -5365,6 +6899,18 @@
       <c r="E132" t="s">
         <v>413</v>
       </c>
+      <c r="J132" t="s">
+        <v>602</v>
+      </c>
+      <c r="K132" t="s">
+        <v>602</v>
+      </c>
+      <c r="L132" t="s">
+        <v>602</v>
+      </c>
+      <c r="M132" t="s">
+        <v>602</v>
+      </c>
       <c r="N132" t="s">
         <v>416</v>
       </c>
@@ -5388,6 +6934,18 @@
       <c r="E133" t="s">
         <v>418</v>
       </c>
+      <c r="J133" t="s">
+        <v>601</v>
+      </c>
+      <c r="K133" t="s">
+        <v>601</v>
+      </c>
+      <c r="L133" t="s">
+        <v>601</v>
+      </c>
+      <c r="M133" t="s">
+        <v>601</v>
+      </c>
       <c r="N133" t="s">
         <v>419</v>
       </c>
@@ -5411,6 +6969,18 @@
       <c r="E134" t="s">
         <v>421</v>
       </c>
+      <c r="J134" t="s">
+        <v>602</v>
+      </c>
+      <c r="K134" t="s">
+        <v>602</v>
+      </c>
+      <c r="L134" t="s">
+        <v>602</v>
+      </c>
+      <c r="M134" t="s">
+        <v>602</v>
+      </c>
       <c r="N134" t="s">
         <v>422</v>
       </c>
@@ -5434,6 +7004,18 @@
       <c r="E135" t="s">
         <v>424</v>
       </c>
+      <c r="J135" t="s">
+        <v>601</v>
+      </c>
+      <c r="K135" t="s">
+        <v>601</v>
+      </c>
+      <c r="L135" t="s">
+        <v>601</v>
+      </c>
+      <c r="M135" t="s">
+        <v>601</v>
+      </c>
       <c r="N135" t="s">
         <v>425</v>
       </c>
@@ -5457,6 +7039,18 @@
       <c r="E136" t="s">
         <v>427</v>
       </c>
+      <c r="J136" t="s">
+        <v>602</v>
+      </c>
+      <c r="K136" t="s">
+        <v>602</v>
+      </c>
+      <c r="L136" t="s">
+        <v>602</v>
+      </c>
+      <c r="M136" t="s">
+        <v>602</v>
+      </c>
       <c r="N136" t="s">
         <v>428</v>
       </c>
@@ -5480,6 +7074,18 @@
       <c r="E137" t="s">
         <v>430</v>
       </c>
+      <c r="J137" t="s">
+        <v>601</v>
+      </c>
+      <c r="K137" t="s">
+        <v>601</v>
+      </c>
+      <c r="L137" t="s">
+        <v>601</v>
+      </c>
+      <c r="M137" t="s">
+        <v>601</v>
+      </c>
       <c r="N137" t="s">
         <v>431</v>
       </c>
@@ -5503,6 +7109,18 @@
       <c r="E138" t="s">
         <v>433</v>
       </c>
+      <c r="J138" t="s">
+        <v>601</v>
+      </c>
+      <c r="K138" t="s">
+        <v>601</v>
+      </c>
+      <c r="L138" t="s">
+        <v>601</v>
+      </c>
+      <c r="M138" t="s">
+        <v>601</v>
+      </c>
       <c r="N138" t="s">
         <v>434</v>
       </c>
@@ -5526,6 +7144,18 @@
       <c r="E139" t="s">
         <v>436</v>
       </c>
+      <c r="J139" t="s">
+        <v>601</v>
+      </c>
+      <c r="K139" t="s">
+        <v>601</v>
+      </c>
+      <c r="L139" t="s">
+        <v>601</v>
+      </c>
+      <c r="M139" t="s">
+        <v>601</v>
+      </c>
       <c r="N139" t="s">
         <v>437</v>
       </c>
@@ -5549,6 +7179,18 @@
       <c r="E140" t="s">
         <v>439</v>
       </c>
+      <c r="J140" t="s">
+        <v>601</v>
+      </c>
+      <c r="K140" t="s">
+        <v>601</v>
+      </c>
+      <c r="L140" t="s">
+        <v>601</v>
+      </c>
+      <c r="M140" t="s">
+        <v>601</v>
+      </c>
       <c r="N140" t="s">
         <v>440</v>
       </c>
@@ -5572,6 +7214,18 @@
       <c r="E141" t="s">
         <v>442</v>
       </c>
+      <c r="J141" t="s">
+        <v>601</v>
+      </c>
+      <c r="K141" t="s">
+        <v>601</v>
+      </c>
+      <c r="L141" t="s">
+        <v>601</v>
+      </c>
+      <c r="M141" t="s">
+        <v>601</v>
+      </c>
       <c r="N141" t="s">
         <v>443</v>
       </c>
@@ -5595,6 +7249,18 @@
       <c r="E142" t="s">
         <v>445</v>
       </c>
+      <c r="J142" t="s">
+        <v>602</v>
+      </c>
+      <c r="K142" t="s">
+        <v>602</v>
+      </c>
+      <c r="L142" t="s">
+        <v>602</v>
+      </c>
+      <c r="M142" t="s">
+        <v>602</v>
+      </c>
       <c r="N142" t="s">
         <v>446</v>
       </c>
@@ -5618,6 +7284,18 @@
       <c r="E143" t="s">
         <v>448</v>
       </c>
+      <c r="J143" t="s">
+        <v>602</v>
+      </c>
+      <c r="K143" t="s">
+        <v>602</v>
+      </c>
+      <c r="L143" t="s">
+        <v>602</v>
+      </c>
+      <c r="M143" t="s">
+        <v>602</v>
+      </c>
       <c r="N143" t="s">
         <v>449</v>
       </c>
@@ -5641,6 +7319,18 @@
       <c r="E144" t="s">
         <v>451</v>
       </c>
+      <c r="J144" t="s">
+        <v>602</v>
+      </c>
+      <c r="K144" t="s">
+        <v>602</v>
+      </c>
+      <c r="L144" t="s">
+        <v>602</v>
+      </c>
+      <c r="M144" t="s">
+        <v>602</v>
+      </c>
       <c r="N144" t="s">
         <v>452</v>
       </c>
@@ -5664,6 +7354,18 @@
       <c r="E145" t="s">
         <v>454</v>
       </c>
+      <c r="J145" t="s">
+        <v>602</v>
+      </c>
+      <c r="K145" t="s">
+        <v>602</v>
+      </c>
+      <c r="L145" t="s">
+        <v>602</v>
+      </c>
+      <c r="M145" t="s">
+        <v>602</v>
+      </c>
       <c r="N145" t="s">
         <v>455</v>
       </c>
@@ -5687,6 +7389,18 @@
       <c r="E146" t="s">
         <v>457</v>
       </c>
+      <c r="J146" t="s">
+        <v>602</v>
+      </c>
+      <c r="K146" t="s">
+        <v>602</v>
+      </c>
+      <c r="L146" t="s">
+        <v>602</v>
+      </c>
+      <c r="M146" t="s">
+        <v>602</v>
+      </c>
       <c r="N146" t="s">
         <v>455</v>
       </c>
@@ -5710,6 +7424,18 @@
       <c r="E147" t="s">
         <v>458</v>
       </c>
+      <c r="J147" t="s">
+        <v>602</v>
+      </c>
+      <c r="K147" t="s">
+        <v>602</v>
+      </c>
+      <c r="L147" t="s">
+        <v>602</v>
+      </c>
+      <c r="M147" t="s">
+        <v>602</v>
+      </c>
       <c r="N147" t="s">
         <v>459</v>
       </c>
@@ -5733,6 +7459,18 @@
       <c r="E148" t="s">
         <v>462</v>
       </c>
+      <c r="J148" t="s">
+        <v>601</v>
+      </c>
+      <c r="K148" t="s">
+        <v>601</v>
+      </c>
+      <c r="L148" t="s">
+        <v>602</v>
+      </c>
+      <c r="M148" t="s">
+        <v>602</v>
+      </c>
       <c r="N148" t="s">
         <v>463</v>
       </c>
@@ -5756,6 +7494,18 @@
       <c r="E149" t="s">
         <v>466</v>
       </c>
+      <c r="J149" t="s">
+        <v>601</v>
+      </c>
+      <c r="K149" t="s">
+        <v>601</v>
+      </c>
+      <c r="L149" t="s">
+        <v>601</v>
+      </c>
+      <c r="M149" t="s">
+        <v>601</v>
+      </c>
       <c r="N149" t="s">
         <v>467</v>
       </c>
@@ -5779,6 +7529,18 @@
       <c r="E150" t="s">
         <v>470</v>
       </c>
+      <c r="J150" t="s">
+        <v>601</v>
+      </c>
+      <c r="K150" t="s">
+        <v>601</v>
+      </c>
+      <c r="L150" t="s">
+        <v>602</v>
+      </c>
+      <c r="M150" t="s">
+        <v>602</v>
+      </c>
       <c r="N150" t="s">
         <v>471</v>
       </c>
@@ -5802,6 +7564,18 @@
       <c r="E151" t="s">
         <v>473</v>
       </c>
+      <c r="J151" t="s">
+        <v>601</v>
+      </c>
+      <c r="K151" t="s">
+        <v>601</v>
+      </c>
+      <c r="L151" t="s">
+        <v>601</v>
+      </c>
+      <c r="M151" t="s">
+        <v>601</v>
+      </c>
       <c r="N151" t="s">
         <v>474</v>
       </c>
@@ -5825,6 +7599,18 @@
       <c r="E152" t="s">
         <v>476</v>
       </c>
+      <c r="J152" t="s">
+        <v>601</v>
+      </c>
+      <c r="K152" t="s">
+        <v>601</v>
+      </c>
+      <c r="L152" t="s">
+        <v>602</v>
+      </c>
+      <c r="M152" t="s">
+        <v>602</v>
+      </c>
       <c r="N152" t="s">
         <v>477</v>
       </c>
@@ -5848,6 +7634,18 @@
       <c r="E153" t="s">
         <v>476</v>
       </c>
+      <c r="J153" t="s">
+        <v>601</v>
+      </c>
+      <c r="K153" t="s">
+        <v>601</v>
+      </c>
+      <c r="L153" t="s">
+        <v>601</v>
+      </c>
+      <c r="M153" t="s">
+        <v>601</v>
+      </c>
       <c r="N153" t="s">
         <v>479</v>
       </c>
@@ -5871,6 +7669,18 @@
       <c r="E154" t="s">
         <v>482</v>
       </c>
+      <c r="J154" t="s">
+        <v>601</v>
+      </c>
+      <c r="K154" t="s">
+        <v>601</v>
+      </c>
+      <c r="L154" t="s">
+        <v>601</v>
+      </c>
+      <c r="M154" t="s">
+        <v>601</v>
+      </c>
       <c r="N154" t="s">
         <v>483</v>
       </c>
@@ -5894,6 +7704,18 @@
       <c r="E155" t="s">
         <v>485</v>
       </c>
+      <c r="J155" t="s">
+        <v>602</v>
+      </c>
+      <c r="K155" t="s">
+        <v>602</v>
+      </c>
+      <c r="L155" t="s">
+        <v>602</v>
+      </c>
+      <c r="M155" t="s">
+        <v>602</v>
+      </c>
       <c r="N155" t="s">
         <v>486</v>
       </c>
@@ -5917,6 +7739,18 @@
       <c r="E156" t="s">
         <v>488</v>
       </c>
+      <c r="J156" t="s">
+        <v>601</v>
+      </c>
+      <c r="K156" t="s">
+        <v>601</v>
+      </c>
+      <c r="L156" t="s">
+        <v>601</v>
+      </c>
+      <c r="M156" t="s">
+        <v>601</v>
+      </c>
       <c r="N156" t="s">
         <v>489</v>
       </c>
@@ -5940,6 +7774,18 @@
       <c r="E157" t="s">
         <v>492</v>
       </c>
+      <c r="J157" t="s">
+        <v>601</v>
+      </c>
+      <c r="K157" t="s">
+        <v>601</v>
+      </c>
+      <c r="L157" t="s">
+        <v>602</v>
+      </c>
+      <c r="M157" t="s">
+        <v>602</v>
+      </c>
       <c r="N157" t="s">
         <v>493</v>
       </c>
@@ -5963,6 +7809,18 @@
       <c r="E158" t="s">
         <v>495</v>
       </c>
+      <c r="J158" t="s">
+        <v>601</v>
+      </c>
+      <c r="K158" t="s">
+        <v>601</v>
+      </c>
+      <c r="L158" t="s">
+        <v>602</v>
+      </c>
+      <c r="M158" t="s">
+        <v>602</v>
+      </c>
       <c r="N158" t="s">
         <v>496</v>
       </c>
@@ -5986,6 +7844,18 @@
       <c r="E159" t="s">
         <v>499</v>
       </c>
+      <c r="J159" t="s">
+        <v>601</v>
+      </c>
+      <c r="K159" t="s">
+        <v>601</v>
+      </c>
+      <c r="L159" t="s">
+        <v>601</v>
+      </c>
+      <c r="M159" t="s">
+        <v>601</v>
+      </c>
       <c r="N159" t="s">
         <v>500</v>
       </c>
@@ -6009,6 +7879,18 @@
       <c r="E160" t="s">
         <v>502</v>
       </c>
+      <c r="J160" t="s">
+        <v>601</v>
+      </c>
+      <c r="K160" t="s">
+        <v>601</v>
+      </c>
+      <c r="L160" t="s">
+        <v>601</v>
+      </c>
+      <c r="M160" t="s">
+        <v>601</v>
+      </c>
       <c r="N160" t="s">
         <v>503</v>
       </c>
@@ -6032,6 +7914,18 @@
       <c r="E161" t="s">
         <v>505</v>
       </c>
+      <c r="J161" t="s">
+        <v>601</v>
+      </c>
+      <c r="K161" t="s">
+        <v>601</v>
+      </c>
+      <c r="L161" t="s">
+        <v>601</v>
+      </c>
+      <c r="M161" t="s">
+        <v>601</v>
+      </c>
       <c r="N161" t="s">
         <v>506</v>
       </c>
@@ -6055,6 +7949,18 @@
       <c r="E162" t="s">
         <v>508</v>
       </c>
+      <c r="J162" t="s">
+        <v>601</v>
+      </c>
+      <c r="K162" t="s">
+        <v>601</v>
+      </c>
+      <c r="L162" t="s">
+        <v>601</v>
+      </c>
+      <c r="M162" t="s">
+        <v>602</v>
+      </c>
       <c r="N162" t="s">
         <v>509</v>
       </c>
@@ -6078,6 +7984,18 @@
       <c r="E163" t="s">
         <v>511</v>
       </c>
+      <c r="J163" t="s">
+        <v>601</v>
+      </c>
+      <c r="K163" t="s">
+        <v>601</v>
+      </c>
+      <c r="L163" t="s">
+        <v>602</v>
+      </c>
+      <c r="M163" t="s">
+        <v>602</v>
+      </c>
       <c r="N163" t="s">
         <v>509</v>
       </c>
@@ -6101,6 +8019,18 @@
       <c r="E164" t="s">
         <v>512</v>
       </c>
+      <c r="J164" t="s">
+        <v>601</v>
+      </c>
+      <c r="K164" t="s">
+        <v>601</v>
+      </c>
+      <c r="L164" t="s">
+        <v>602</v>
+      </c>
+      <c r="M164" t="s">
+        <v>602</v>
+      </c>
       <c r="N164" t="s">
         <v>513</v>
       </c>
@@ -6124,6 +8054,18 @@
       <c r="E165" t="s">
         <v>515</v>
       </c>
+      <c r="J165" t="s">
+        <v>601</v>
+      </c>
+      <c r="K165" t="s">
+        <v>601</v>
+      </c>
+      <c r="L165" t="s">
+        <v>601</v>
+      </c>
+      <c r="M165" t="s">
+        <v>601</v>
+      </c>
       <c r="N165" t="s">
         <v>516</v>
       </c>
@@ -6147,6 +8089,18 @@
       <c r="E166" t="s">
         <v>518</v>
       </c>
+      <c r="J166" t="s">
+        <v>601</v>
+      </c>
+      <c r="K166" t="s">
+        <v>601</v>
+      </c>
+      <c r="L166" t="s">
+        <v>602</v>
+      </c>
+      <c r="M166" t="s">
+        <v>602</v>
+      </c>
       <c r="N166" t="s">
         <v>519</v>
       </c>
@@ -6170,6 +8124,18 @@
       <c r="E167" t="s">
         <v>521</v>
       </c>
+      <c r="J167" t="s">
+        <v>601</v>
+      </c>
+      <c r="K167" t="s">
+        <v>601</v>
+      </c>
+      <c r="L167" t="s">
+        <v>602</v>
+      </c>
+      <c r="M167" t="s">
+        <v>602</v>
+      </c>
       <c r="N167" t="s">
         <v>522</v>
       </c>
@@ -6193,6 +8159,18 @@
       <c r="E168" t="s">
         <v>524</v>
       </c>
+      <c r="J168" t="s">
+        <v>601</v>
+      </c>
+      <c r="K168" t="s">
+        <v>601</v>
+      </c>
+      <c r="L168" t="s">
+        <v>602</v>
+      </c>
+      <c r="M168" t="s">
+        <v>602</v>
+      </c>
       <c r="N168" t="s">
         <v>525</v>
       </c>
@@ -6216,6 +8194,18 @@
       <c r="E169" t="s">
         <v>527</v>
       </c>
+      <c r="J169" t="s">
+        <v>601</v>
+      </c>
+      <c r="K169" t="s">
+        <v>601</v>
+      </c>
+      <c r="L169" t="s">
+        <v>602</v>
+      </c>
+      <c r="M169" t="s">
+        <v>602</v>
+      </c>
       <c r="N169" t="s">
         <v>528</v>
       </c>
@@ -6239,6 +8229,18 @@
       <c r="E170" t="s">
         <v>530</v>
       </c>
+      <c r="J170" t="s">
+        <v>601</v>
+      </c>
+      <c r="K170" t="s">
+        <v>601</v>
+      </c>
+      <c r="L170" t="s">
+        <v>602</v>
+      </c>
+      <c r="M170" t="s">
+        <v>602</v>
+      </c>
       <c r="N170" t="s">
         <v>531</v>
       </c>
@@ -6262,6 +8264,18 @@
       <c r="E171" t="s">
         <v>533</v>
       </c>
+      <c r="J171" t="s">
+        <v>601</v>
+      </c>
+      <c r="K171" t="s">
+        <v>601</v>
+      </c>
+      <c r="L171" t="s">
+        <v>602</v>
+      </c>
+      <c r="M171" t="s">
+        <v>602</v>
+      </c>
       <c r="N171" t="s">
         <v>534</v>
       </c>
@@ -6285,6 +8299,18 @@
       <c r="E172" t="s">
         <v>536</v>
       </c>
+      <c r="J172" t="s">
+        <v>601</v>
+      </c>
+      <c r="K172" t="s">
+        <v>601</v>
+      </c>
+      <c r="L172" t="s">
+        <v>602</v>
+      </c>
+      <c r="M172" t="s">
+        <v>602</v>
+      </c>
       <c r="N172" t="s">
         <v>537</v>
       </c>
@@ -6308,6 +8334,18 @@
       <c r="E173" t="s">
         <v>539</v>
       </c>
+      <c r="J173" t="s">
+        <v>601</v>
+      </c>
+      <c r="K173" t="s">
+        <v>601</v>
+      </c>
+      <c r="L173" t="s">
+        <v>601</v>
+      </c>
+      <c r="M173" t="s">
+        <v>601</v>
+      </c>
       <c r="N173" t="s">
         <v>540</v>
       </c>
@@ -6331,6 +8369,18 @@
       <c r="E174" t="s">
         <v>543</v>
       </c>
+      <c r="J174" t="s">
+        <v>601</v>
+      </c>
+      <c r="K174" t="s">
+        <v>601</v>
+      </c>
+      <c r="L174" t="s">
+        <v>601</v>
+      </c>
+      <c r="M174" t="s">
+        <v>601</v>
+      </c>
       <c r="N174" t="s">
         <v>544</v>
       </c>
@@ -6515,6 +8565,18 @@
       <c r="E182" t="s">
         <v>572</v>
       </c>
+      <c r="J182" t="s">
+        <v>601</v>
+      </c>
+      <c r="K182" t="s">
+        <v>601</v>
+      </c>
+      <c r="L182" t="s">
+        <v>601</v>
+      </c>
+      <c r="M182" t="s">
+        <v>601</v>
+      </c>
       <c r="N182" t="s">
         <v>573</v>
       </c>
@@ -6538,6 +8600,18 @@
       <c r="E183" t="s">
         <v>575</v>
       </c>
+      <c r="J183" t="s">
+        <v>601</v>
+      </c>
+      <c r="K183" t="s">
+        <v>601</v>
+      </c>
+      <c r="L183" t="s">
+        <v>601</v>
+      </c>
+      <c r="M183" t="s">
+        <v>601</v>
+      </c>
       <c r="N183" t="s">
         <v>576</v>
       </c>
@@ -6561,6 +8635,18 @@
       <c r="E184" t="s">
         <v>578</v>
       </c>
+      <c r="J184" t="s">
+        <v>601</v>
+      </c>
+      <c r="K184" t="s">
+        <v>601</v>
+      </c>
+      <c r="L184" t="s">
+        <v>601</v>
+      </c>
+      <c r="M184" t="s">
+        <v>601</v>
+      </c>
       <c r="N184" t="s">
         <v>579</v>
       </c>
@@ -6584,6 +8670,18 @@
       <c r="E185" t="s">
         <v>581</v>
       </c>
+      <c r="J185" t="s">
+        <v>601</v>
+      </c>
+      <c r="K185" t="s">
+        <v>601</v>
+      </c>
+      <c r="L185" t="s">
+        <v>601</v>
+      </c>
+      <c r="M185" t="s">
+        <v>601</v>
+      </c>
       <c r="N185" t="s">
         <v>582</v>
       </c>
@@ -6607,6 +8705,18 @@
       <c r="E186" t="s">
         <v>584</v>
       </c>
+      <c r="J186" t="s">
+        <v>601</v>
+      </c>
+      <c r="K186" t="s">
+        <v>601</v>
+      </c>
+      <c r="L186" t="s">
+        <v>601</v>
+      </c>
+      <c r="M186" t="s">
+        <v>601</v>
+      </c>
       <c r="N186" t="s">
         <v>582</v>
       </c>
@@ -6630,6 +8740,18 @@
       <c r="E187" t="s">
         <v>586</v>
       </c>
+      <c r="J187" t="s">
+        <v>601</v>
+      </c>
+      <c r="K187" t="s">
+        <v>601</v>
+      </c>
+      <c r="L187" t="s">
+        <v>601</v>
+      </c>
+      <c r="M187" t="s">
+        <v>601</v>
+      </c>
       <c r="N187" t="s">
         <v>587</v>
       </c>
@@ -6653,6 +8775,18 @@
       <c r="E188" t="s">
         <v>589</v>
       </c>
+      <c r="J188" t="s">
+        <v>601</v>
+      </c>
+      <c r="K188" t="s">
+        <v>601</v>
+      </c>
+      <c r="L188" t="s">
+        <v>601</v>
+      </c>
+      <c r="M188" t="s">
+        <v>601</v>
+      </c>
       <c r="N188" t="s">
         <v>590</v>
       </c>
@@ -6676,6 +8810,18 @@
       <c r="E189" t="s">
         <v>592</v>
       </c>
+      <c r="J189" t="s">
+        <v>601</v>
+      </c>
+      <c r="K189" t="s">
+        <v>601</v>
+      </c>
+      <c r="L189" t="s">
+        <v>601</v>
+      </c>
+      <c r="M189" t="s">
+        <v>601</v>
+      </c>
       <c r="N189" t="s">
         <v>593</v>
       </c>
@@ -6699,6 +8845,18 @@
       <c r="E190" t="s">
         <v>595</v>
       </c>
+      <c r="J190" t="s">
+        <v>601</v>
+      </c>
+      <c r="K190" t="s">
+        <v>601</v>
+      </c>
+      <c r="L190" t="s">
+        <v>601</v>
+      </c>
+      <c r="M190" t="s">
+        <v>601</v>
+      </c>
       <c r="N190" t="s">
         <v>596</v>
       </c>
@@ -6722,6 +8880,18 @@
       <c r="E191" t="s">
         <v>598</v>
       </c>
+      <c r="J191" t="s">
+        <v>601</v>
+      </c>
+      <c r="K191" t="s">
+        <v>601</v>
+      </c>
+      <c r="L191" t="s">
+        <v>601</v>
+      </c>
+      <c r="M191" t="s">
+        <v>601</v>
+      </c>
       <c r="N191" t="s">
         <v>599</v>
       </c>
@@ -6730,6 +8900,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J3:O191">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
